--- a/Assets/GameData/Items.xlsx
+++ b/Assets/GameData/Items.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>effectId</t>
   </si>
   <si>
     <t>f</t>
@@ -995,15 +1001,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,19 +1019,31 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
+      <c r="D2">
+        <v>452</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1035,8 +1053,14 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1046,8 +1070,14 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1056,6 +1086,9 @@
       </c>
       <c r="C5">
         <v>4</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/Assets/GameData/Items.xlsx
+++ b/Assets/GameData/Items.xlsx
@@ -33,7 +33,7 @@
     <t>effectId</t>
   </si>
   <si>
-    <t>f</t>
+    <t>ASDASD</t>
   </si>
 </sst>
 </file>
@@ -1001,13 +1001,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1100,6 +1100,11 @@
       </c>
       <c r="C6">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameData/Items.xlsx
+++ b/Assets/GameData/Items.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>ASDASD</t>
+  </si>
+  <si>
+    <t>wizza</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1007,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1091,7 +1094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1101,10 +1104,28 @@
       <c r="C6">
         <v>11</v>
       </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:5">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>123</v>
+      </c>
+      <c r="D7">
+        <v>123</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
